--- a/Courses Offered.xlsx
+++ b/Courses Offered.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="7800" activeTab="1"/>
+    <workbookView windowWidth="19395" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
   <si>
     <t>SL No</t>
   </si>
@@ -186,16 +186,6 @@
   </si>
   <si>
     <t>SL NO</t>
-  </si>
-  <si>
-    <t>OS Concepts : Linux Commands, Vi editor, Shell Scripting, Overview of OS, Processes, Scheduling &amp; Synchronization, Memory management, File Systems, Case Study with Linux System Programming: Process, Signals, Semaphores &amp; Mutex, Inter – Process Communication, POSIX Threads</t>
-  </si>
-  <si>
-    <t>Database Concepts: Client/Server Computing,RDBMS Technologies,Codd’s Rules,Data Models,Normalization Techniques,ER Diagrams,
-SQL : Overview of OORD,Introduction SQL*Plus,DDL, DML and DCL,Tables, Indexes and Views,Clusters, Sequences and Snapshots,Cursors,Stored Procedures, Triggers, Packages, Introduction to No SQL, MongoDB (Virtual DB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Client/Server Computing,RDBMS Technologies,Codd’s Rules,Data Models,Normalization Techniques,ER Diagrams,</t>
   </si>
 </sst>
 </file>
@@ -203,9 +193,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -217,39 +207,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,6 +251,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -270,16 +275,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -295,15 +307,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -311,22 +315,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,13 +335,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -354,10 +344,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -370,31 +360,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,151 +534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,25 +570,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,21 +610,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,23 +637,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,152 +671,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,9 +825,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1194,10 +1181,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1205,66 +1192,66 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1272,52 +1259,52 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1325,59 +1312,59 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1385,52 +1372,52 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>5</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1438,45 +1425,45 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>6</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1484,38 +1471,38 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
       <c r="C41" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>7</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1523,38 +1510,38 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>8</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -1562,31 +1549,31 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
       <c r="C51" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
       <c r="C52" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>9</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -1594,38 +1581,38 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
       <c r="C54" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>10</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -1633,45 +1620,45 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>11</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -1679,87 +1666,87 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
       <c r="C70" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
       <c r="C71" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
       <c r="C72" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="7"/>
+      <c r="A73" s="6"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="7"/>
+      <c r="A74" s="6"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="7"/>
+      <c r="A75" s="6"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="7"/>
+      <c r="A76" s="6"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="7"/>
+      <c r="A77" s="6"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="7"/>
+      <c r="A78" s="6"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="7"/>
+      <c r="A79" s="6"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="7"/>
+      <c r="A80" s="6"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="7"/>
+      <c r="A81" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1797,7 +1784,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -1815,16 +1802,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="63" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
@@ -1858,16 +1843,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="94.5" spans="1:3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
@@ -1909,16 +1892,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="31.5" spans="1:3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">

--- a/Courses Offered.xlsx
+++ b/Courses Offered.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19395" windowHeight="7800" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="7425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Details" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="60">
   <si>
     <t>SL No</t>
   </si>
@@ -186,6 +187,15 @@
   </si>
   <si>
     <t>SL NO</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Targeted Candidates</t>
+  </si>
+  <si>
+    <t>Assessment</t>
   </si>
 </sst>
 </file>
@@ -193,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -207,23 +217,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,55 +252,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,11 +284,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,6 +299,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -328,8 +330,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,14 +360,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -360,7 +370,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,13 +466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,25 +490,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +538,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,103 +550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,32 +579,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,35 +599,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,8 +621,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,224 +681,230 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1159,565 +1175,565 @@
   <sheetPr/>
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="43.1" customWidth="1"/>
-    <col min="3" max="3" width="47.6" customWidth="1"/>
+    <col min="2" max="2" width="43.0952380952381" customWidth="1"/>
+    <col min="3" max="3" width="51.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="2" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="2" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="2" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="2" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="2" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>4</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="2" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="2" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="2" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="2" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="2" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="2" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>5</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="2" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="2" t="s">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="2" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="2" t="s">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="2" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>6</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="2" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="2" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="2" t="s">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>7</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="2" t="s">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="2" t="s">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="2" t="s">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="2" t="s">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>8</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="2" t="s">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="2" t="s">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="2" t="s">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>9</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="2" t="s">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="2" t="s">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="2" t="s">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="2" t="s">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>10</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="2" t="s">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="2" t="s">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="2" t="s">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="2" t="s">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="2" t="s">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>11</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="2" t="s">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="2" t="s">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="2" t="s">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="2" t="s">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="2" t="s">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="2" t="s">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="2" t="s">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="2" t="s">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1783,361 +1799,361 @@
   <sheetPr/>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.8" style="1"/>
+    <col min="1" max="1" width="8.8" style="7"/>
     <col min="2" max="2" width="47.6" customWidth="1"/>
-    <col min="3" max="3" width="63.3" customWidth="1"/>
+    <col min="3" max="3" width="63.2952380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2145,4 +2161,884 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="43.0952380952381" customWidth="1"/>
+    <col min="3" max="3" width="51.8571428571429" customWidth="1"/>
+    <col min="4" max="6" width="43.0952380952381" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3">
+        <v>6</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3">
+        <v>10</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3">
+        <v>11</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="6"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="6"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="6"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="6"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="6"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="6"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="6"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B72"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="D33:D38"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="D58:D63"/>
+    <mergeCell ref="D64:D72"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="E33:E38"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="E49:E52"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="E58:E63"/>
+    <mergeCell ref="E64:E72"/>
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="F18:F25"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="F33:F38"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="F44:F48"/>
+    <mergeCell ref="F49:F52"/>
+    <mergeCell ref="F53:F57"/>
+    <mergeCell ref="F58:F63"/>
+    <mergeCell ref="F64:F72"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>